--- a/config_files/Horarios/Palobiofarma, S.L Mataró/David Ramos.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/David Ramos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9355,28 +9355,13 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="105" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="105" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="102" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9386,6 +9371,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
